--- a/biology/Microbiologie/Dysteriidae/Dysteriidae.xlsx
+++ b/biology/Microbiologie/Dysteriidae/Dysteriidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Dysteriidae sont une famille de Ciliés de la classe des Cyrtophoria et de l’ordre des Dysteriida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Dysteria, nommé en l'honneur du Dr Frederick Daniel Dyster (1810-1893), ami de Huxley, et qui lui procura le matériel biologique lui permettant de décrire l'organisme[1],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Dysteria, nommé en l'honneur du Dr Frederick Daniel Dyster (1810-1893), ami de Huxley, et qui lui procura le matériel biologique lui permettant de décrire l'organisme,.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Saville (1880) fait la description suivante du genre Dysteria : 
-« Animalcules nageant librement, ovoïdes, encuirassés, comprimés bilatéralement ; la face ventrale entièrement ciliée, étroite et en forme de rainure ; carapace composée de deux pièces latérales, unies à chacune seulement par leur extrémité postérieure ; armature pharyngienne complexe, consistant en une partie annulaire, antérieure, cornée, et d'un long processus stylé postérieur ; une épine en forme de queue dépasse de la région postérieure de la rainure ventrale[1]. »
+« Animalcules nageant librement, ovoïdes, encuirassés, comprimés bilatéralement ; la face ventrale entièrement ciliée, étroite et en forme de rainure ; carapace composée de deux pièces latérales, unies à chacune seulement par leur extrémité postérieure ; armature pharyngienne complexe, consistant en une partie annulaire, antérieure, cornée, et d'un long processus stylé postérieur ; une épine en forme de queue dépasse de la région postérieure de la rainure ventrale. »
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La première découverte du genre Dysteria fut effectuée sur des algues épiphytes de coquilles de mollusques d'un aquarium marin[1].
-Les espèces de la famille des Dysteriidae sont omniprésentes dans toutes les mers du globe[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La première découverte du genre Dysteria fut effectuée sur des algues épiphytes de coquilles de mollusques d'un aquarium marin.
+Les espèces de la famille des Dysteriidae sont omniprésentes dans toutes les mers du globe.
 </t>
         </is>
       </c>
@@ -607,15 +625,17 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (13 décembre 2022)[3] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (13 décembre 2022) :
 Aegyria Claparède &amp; Lachmann, 1858
-Aegyriana Deroux, 1975[4]
+Aegyriana Deroux, 1975
 Agnathodysteria Deroux, 1976
 Disteria : nom erroné
-Dysteria Huxley, 1857[5] genre type (nombreux synonymes[4],[note 1]).
-Ervilia Dujardin, 1841[4]
+Dysteria Huxley, 1857 genre type (nombreux synonymes,[note 1]).
+Ervilia Dujardin, 1841
 Ervilila : nom erroné
 Erwilia : nom erroné
 Hartmannulopsis Deroux &amp; Dragesco, 1968
@@ -652,9 +672,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Dysteriidae Claparède &amp; Lachmann, 1858 [6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Dysteriidae Claparède &amp; Lachmann, 1858 .
 </t>
         </is>
       </c>
